--- a/Assets/Resources/Datas/Sword.xlsx
+++ b/Assets/Resources/Datas/Sword.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB2A13A-598A-40D1-A160-4FCA764C3C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE11A4E-9403-4515-8E85-1477C80608E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25530" yWindow="1320" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1830" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +149,38 @@
   </si>
   <si>
     <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격판정시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 판정이 들어가는 거리. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swordfish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,226 +506,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.15</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>250</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1.6</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B77A6-D69C-4A9A-ADDC-E23BFA411A0E}">
+  <dimension ref="B3:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-      <c r="D8">
+      <c r="H4">
         <v>300</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>300</v>
-      </c>
-      <c r="E10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Datas/Sword.xlsx
+++ b/Assets/Resources/Datas/Sword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE11A4E-9403-4515-8E85-1477C80608E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02A86B-DA53-482B-AA98-88E12A73E295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1830" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26505" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내구도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cooldown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Durability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FastAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FastDraw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cleaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>길이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +165,82 @@
   </si>
   <si>
     <t>Swordfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalDraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이 100 = 256px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoHandedHammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immortality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastDamageUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastCounterAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatKnockback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatDrawAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_OldSword_Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_FastSword_Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 도중 적에게 데미지가 들어가는 시각. 항상 쿨타임보다 짧아야 함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,294 +566,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="D5">
-        <v>0.4</v>
-      </c>
       <c r="E5">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.35</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>0.25</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
+      <c r="C9">
         <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-      <c r="D8">
-        <v>0.15</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
       </c>
       <c r="D9">
         <v>0.5</v>
       </c>
       <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>250</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+      <c r="F12">
         <v>300</v>
       </c>
-      <c r="F10">
-        <v>120</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0.8</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1.6</v>
-      </c>
-      <c r="E12">
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
         <v>50</v>
       </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
+      <c r="G13">
+        <v>250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -805,34 +916,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4B77A6-D69C-4A9A-ADDC-E23BFA411A0E}">
-  <dimension ref="B3:H4"/>
+  <dimension ref="B3:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
